--- a/data/trans_dic/P36_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que bebe para calmar su ansiedad (totalmente o bastante cierto)</t>
+          <t>Población que bebe para calmar su ansiedad (totalmente o bastante cierto) (tasa de respuesta: 98,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,67</t>
+          <t>0,0; 4,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,83</t>
+          <t>0,69; 6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,8</t>
+          <t>0,85; 7,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,1</t>
+          <t>2,97; 13,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,0</t>
+          <t>5,07; 17,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 9,76</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,15</t>
+          <t>0,41; 3,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,85</t>
+          <t>2,36; 9,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,31</t>
+          <t>0,65; 5,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,77</t>
+          <t>1,77; 10,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,96</t>
+          <t>3,2; 12,6</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 3,14</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 4,17</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 6,92</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 3,81</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 10,03</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 12,8</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>3,38%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,34</t>
+          <t>0,0; 16,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,86</t>
+          <t>0,52; 4,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,27</t>
+          <t>0,5; 5,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,62</t>
+          <t>1,39; 9,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,26</t>
+          <t>0,86; 9,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,38</t>
+          <t>3,38; 13,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,22</t>
+          <t>0,55; 6,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,23</t>
+          <t>0,97; 5,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,45</t>
+          <t>0,86; 5,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,13</t>
+          <t>1,12; 7,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,06</t>
+          <t>1,61; 7,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,37</t>
+          <t>1,2; 8,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 9,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 4,27</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 4,21</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 6,58</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 6,84</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 9,39</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 8,56</t>
+          <t>0,92; 9,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,27</t>
+          <t>0,63; 3,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,31</t>
+          <t>0,69; 4,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,93</t>
+          <t>2,2; 7,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,75</t>
+          <t>2,26; 7,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,91</t>
+          <t>3,57; 11,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,99</t>
+          <t>0,35; 2,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,37</t>
+          <t>0,61; 3,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,96</t>
+          <t>0,48; 2,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,06</t>
+          <t>0,94; 4,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,91</t>
+          <t>0,89; 5,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,55</t>
+          <t>2,8; 9,52</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 4,36</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 3,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 2,89</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 5,12</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 5,72</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 9,12</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,14</t>
+          <t>1,2; 5,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,72</t>
+          <t>1,35; 6,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,09</t>
+          <t>0,68; 3,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,75</t>
+          <t>1,8; 6,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,68</t>
+          <t>4,39; 15,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,81</t>
+          <t>6,16; 15,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,88</t>
+          <t>0,34; 2,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,26</t>
+          <t>0,3; 2,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,21</t>
+          <t>0,21; 1,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,99</t>
+          <t>0,27; 2,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,51</t>
+          <t>1,34; 6,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,83</t>
+          <t>1,81; 7,33</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 3,61</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 3,66</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 2,48</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 3,93</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 9,94</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 10,23</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
           <t>1,64%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,39</t>
+          <t>0,41; 3,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,35</t>
+          <t>0,97; 4,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,2</t>
+          <t>1,03; 5,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,88; 5,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>1,18; 6,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,55</t>
+          <t>4,28; 12,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 3,19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>0,35; 3,27</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,54</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 2,43</t>
-        </is>
-      </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,1</t>
+          <t>1,72; 7,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,4</t>
+          <t>0,53; 5,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,8</t>
+          <t>3,92; 11,55</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 2,74</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 3,03</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 3,4</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 5,5</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 4,66</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 10,66</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1705,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1371,47 +1720,77 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>0,37%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,62</t>
+          <t>2,41; 10,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>0,0; 4,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,96; 6,07</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,16</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,91</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,79</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 6,07</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,59</t>
+          <t>1,32; 4,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,87</t>
+          <t>1,23; 2,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,69</t>
+          <t>1,18; 2,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,01</t>
+          <t>1,94; 4,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,65</t>
+          <t>3,04; 6,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,22</t>
+          <t>6,3; 9,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,5</t>
+          <t>0,54; 1,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,58</t>
+          <t>0,9; 2,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,3</t>
+          <t>1,13; 2,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,18</t>
+          <t>1,32; 3,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,32</t>
+          <t>1,8; 3,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,44</t>
+          <t>3,66; 6,19</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 2,52</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 2,22</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 2,29</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 3,21</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 4,63</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 7,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que bebe para calmar su ansiedad (totalmente o bastante cierto) (tasa de respuesta: 98,32%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7292</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14091</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14049</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3041</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7398</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26829</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11390</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2461</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10333</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>21489</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>40879</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>15731</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6613</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22941</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3640; 35068</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4330; 38697</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23834</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1176; 5350</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2065; 7194</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15561</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2034; 19505</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12047; 50127</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3037; 25769</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>632; 3837</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1191; 4686</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3041; 28734</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9180; 42646</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21182; 70628</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5261; 34667</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2529; 7562</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3920; 9983</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19499</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10015</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11487</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>22540</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1639</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3454</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11626</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13314</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12350</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14253</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>31125</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>23329</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23837</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>36793</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3399</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4911</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 82931</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2788; 25167</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2939; 32151</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7916; 52878</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>408; 4607</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1579; 6434</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2730; 32094</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4676; 27530</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4435; 26525</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5473; 37353</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>746; 3625</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>517; 3690</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9463; 93923</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11368; 43759</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10476; 46710</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>15630; 69697</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1606; 6403</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2741; 8428</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19628</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10862</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12787</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28873</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2450</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7396</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11917</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9656</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15788</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2988</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>27024</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>22779</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>22443</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>44660</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7035</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6065; 60861</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4228; 24309</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4652; 27531</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14545; 48618</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1323; 4482</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2132; 6585</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2386; 19566</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4147; 23937</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3380; 21038</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6413; 29466</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>458; 3011</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1454; 4947</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>10683; 58068</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12412; 41260</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11972; 39908</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>26819; 68800</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2267; 6281</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4739; 10190</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18528</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18716</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12068</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22840</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5590</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6958</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7602</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4709</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5804</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1553</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2084</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>25486</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>26318</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>16778</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>28643</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>7674</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7667; 37665</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8545; 41359</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4276; 24940</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11401; 40428</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2486; 8519</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3426; 8842</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2247; 18942</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1956; 18531</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1372; 12707</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1683; 15798</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>672; 3176</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>918; 3711</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>12993; 46946</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>12630; 47258</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>7781; 32040</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>15618; 49502</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3931; 10622</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5196; 10865</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6227</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10180</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12417</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11319</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3318</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4589</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5853</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18878</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3096</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10816</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>16034</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>19505</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>30197</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>6415</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1974; 17260</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4800; 21614</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5067; 25166</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4108; 25302</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>515; 2895</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1844; 5241</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14153</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>612; 15437</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1762; 16636</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>8373; 37081</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>245; 2415</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1735; 5110</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4232; 26069</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7399; 29643</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>9792; 33999</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>15980; 52506</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1016; 4196</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>4420; 9309</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5039</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1528</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>8434</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13227</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17730</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1038; 4440</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 30287</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 28647</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>550; 3488</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13652</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0; 22009</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>0; 34806</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>2107; 6105</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>73943</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>63864</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>62809</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>93307</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>12793</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>22843</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>33609</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>50310</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>60633</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>71151</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>7581</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>13614</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>107552</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>114174</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>123441</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>164458</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>20374</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>36457</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>42869; 131173</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>41634; 95345</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>40294; 93750</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>64727; 137862</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8834; 18524</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>18214; 28747</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18592; 56363</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31025; 74213</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>40722; 88384</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>45385; 104448</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5229; 10665</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>10404; 17621</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>72228; 168286</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>84557; 151189</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>89309; 160712</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>123681; 217574</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>16012; 26894</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>30187; 43321</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
